--- a/data/input_behavior/BehaviorScenario_Info_Activity.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Activity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34352D76-4A70-D541-9AC9-A3D2A4DF1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="22380" windowHeight="16960" xr2:uid="{4CBF594C-D519-1C4D-901C-E6FD3B15B43A}"/>
+    <workbookView xWindow="375" yWindow="765" windowWidth="22380" windowHeight="16965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -451,20 +450,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903ACE8F-4038-2D45-817B-37A9BF68D1BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -496,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -512,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -520,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -528,7 +527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -536,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -544,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -552,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -560,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -568,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -576,7 +575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -584,7 +583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -592,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -600,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -614,6 +613,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7a7714bb7e300047a743d6d70b64e471">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bed4c5aeb37c911367c1d98fc4032831" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -790,7 +800,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -799,18 +809,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{802C89E8-F215-4186-8D21-AC5D8A84179F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -829,21 +839,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Info_Activity.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Activity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338C337-277E-CC42-AC95-BEA7FDEE4A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="765" windowWidth="22380" windowHeight="16965"/>
+    <workbookView xWindow="9480" yWindow="-17840" windowWidth="22380" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -450,20 +451,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -487,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -511,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -519,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -527,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -535,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -543,7 +544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -551,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -559,7 +560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -567,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -575,7 +576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -583,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -591,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -599,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -613,14 +614,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,21 +800,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -840,9 +838,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Info_Activity.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338C337-277E-CC42-AC95-BEA7FDEE4A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E667E-C725-6C4A-AFA5-CB6192631858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="-17840" windowWidth="22380" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="1020" windowWidth="12680" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,15 +614,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7a7714bb7e300047a743d6d70b64e471">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bed4c5aeb37c911367c1d98fc4032831" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -799,6 +790,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -811,14 +811,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{802C89E8-F215-4186-8D21-AC5D8A84179F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -837,6 +829,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
   <ds:schemaRefs>
